--- a/Tables_data/SB_SppList.xlsx
+++ b/Tables_data/SB_SppList.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C35279-41D8-4BE1-AC0C-AE68E9C66C9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8EAF87-7FFA-409D-85AF-175F79906A5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="86">
   <si>
     <t>Species_Name</t>
   </si>
@@ -266,13 +267,25 @@
   </si>
   <si>
     <t>Veronica anagallis-aquatica</t>
+  </si>
+  <si>
+    <t>Longevity</t>
+  </si>
+  <si>
+    <t>FACW-OBL</t>
+  </si>
+  <si>
+    <t>Below-ground Species Pool</t>
+  </si>
+  <si>
+    <t>Naturalized*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +301,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -305,14 +346,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="A1:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,4 +2043,1007 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844951A4-22C9-4434-8ACD-664E35E36309}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>